--- a/Assignment 4/results.xlsx
+++ b/Assignment 4/results.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1590692152" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1590692152" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1590692152"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1590692152"/>
+      <pm:revision xmlns:pm="smNativeData" day="1590940047" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1590940047" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1590940047" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1590940047"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Serial</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>1.668574</t>
+  </si>
+  <si>
+    <t>No OpenMP</t>
+  </si>
+  <si>
+    <t>w. OpenMP</t>
   </si>
 </sst>
 </file>
@@ -173,7 +179,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1590692152" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1590940047" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -188,7 +194,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1590692152" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1590940047" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -210,7 +216,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1590692152" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1590940047" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -232,7 +238,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590692152"/>
+          <pm:border xmlns:pm="smNativeData" id="1590940047"/>
         </ext>
       </extLst>
     </border>
@@ -251,7 +257,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1590692152"/>
+          <pm:border xmlns:pm="smNativeData" id="1590940047"/>
         </ext>
       </extLst>
     </border>
@@ -268,12 +274,447 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1590692152" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1590940047" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-gb" sz="1410" b="1" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Basic Sans" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>Computation time - optimization</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$28:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.377223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.107304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.378724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:sm="smo" uri="smo">
+              <sm:meanLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:meanLine>
+              <sm:minMaxLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:minMaxLine>
+              <sm:stDevLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:stDevLine>
+              <sm:trendLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:trendLine>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>w. OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$28:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$29:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.630082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.768127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.433611</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:sm="smo" uri="smo">
+              <sm:meanLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:meanLine>
+              <sm:minMaxLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:minMaxLine>
+              <sm:stDevLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:stDevLine>
+              <sm:trendLine>
+                <c:spPr>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+              </sm:trendLine>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:extLst>
+          <c:ext xmlns:sm="smo" uri="smo">
+            <sm:boxPlot xmlns:sm="smo" val="0"/>
+            <sm:turned xmlns:sm="smo" val="0"/>
+          </c:ext>
+        </c:extLst>
+        <c:axId val="10"/>
+        <c:axId val="11"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-gb" sz="1410" b="1" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Basic Sans" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Process</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-gb" sz="1410" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Basic Sans" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="16200000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-gb" sz="1410" b="1" i="0" u="none" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Basic Sans" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Sec (log-scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-gb" sz="1410" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Basic Sans" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr anchor="t" numCol="2"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-gb" sz="1410" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Basic Sans" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr/>
+  <c:txPr>
+    <a:bodyPr anchor="ctr" anchorCtr="1" rot="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-gb" sz="1410" b="0" i="0" u="none" strike="noStrike">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Basic Sans"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext xmlns:sm="smo" uri="smo">
+      <sm:colorScheme xmlns:sm="smo" id="1590940047" val="7"/>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>86995</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,15 +973,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A6:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="12.90"/>
   <sheetData>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:5">
       <c r="B6" t="n">
         <v>256</v>
       </c>
@@ -571,7 +1012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -605,7 +1046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="2:5">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -636,7 +1077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="2:5">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -650,7 +1091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:12">
       <c r="A13" t="n">
         <v>64</v>
       </c>
@@ -666,8 +1107,20 @@
       <c r="E13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="I13" t="n">
+        <v>0.0128229999999999977</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.160691000000000006</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.34258799999999989</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10.7749430000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -681,7 +1134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:12">
       <c r="A15" t="n">
         <v>256</v>
       </c>
@@ -697,8 +1150,20 @@
       <c r="E15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="I15" t="n">
+        <v>0.00789699999999999935</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0497090000000000032</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.359675000000000011</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.02618900000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -710,13 +1175,207 @@
       </c>
       <c r="E16" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12">
+      <c r="I17" t="n">
+        <v>0.00235099999999999998</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0133229999999999982</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.110780000000000012</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.46042000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12">
+      <c r="I19" t="n">
+        <v>0.00465300000000000047</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0131900000000000017</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0434169999999999945</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.253610000000000024</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>16</v>
+      </c>
+      <c r="J21" t="n">
+        <v>64</v>
+      </c>
+      <c r="K21" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11">
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.37722334595261753</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.10730407210704307</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.378724065583686365</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-1.37195762501983798</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11">
+      <c r="G23" t="n">
+        <v>512</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.160691000000000006</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0497090000000000032</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0133229999999999982</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0131900000000000017</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11">
+      <c r="G24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.34258799999999989</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.359675000000000011</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.110780000000000012</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0434169999999999945</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11">
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>16</v>
+      </c>
+      <c r="J28" t="n">
+        <v>64</v>
+      </c>
+      <c r="K28" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11">
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.630082239835928259</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.768127093891019275</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.433611262547039278</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-1.16143707908137328</v>
+      </c>
+    </row>
+    <row r="30" spans="7:11">
+      <c r="G30" t="n">
+        <v>512</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.194254000000000016</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.0146980000000001</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.0492640000000000011</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0308400000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="7:11">
+      <c r="G31" t="n">
+        <v>1024</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.324604999999999988</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.00329200000000007</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.159742999999999995</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.058468</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11">
+      <c r="H33">
+        <f>LN(H22)</f>
+        <v>0.865933145239789859</v>
+      </c>
+      <c r="I33">
+        <f>LN(I22)</f>
+        <v>0.101928297225362252</v>
+      </c>
+      <c r="J33">
+        <f>LN(J22)</f>
+        <v>-0.970947398209428059</v>
+      </c>
+      <c r="K33" t="e">
+        <f>LN(K22)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11">
+      <c r="H34">
+        <f>LN(H29)</f>
+        <v>-0.461904928693979233</v>
+      </c>
+      <c r="I34">
+        <f>LN(I29)</f>
+        <v>-0.263800072688636345</v>
+      </c>
+      <c r="J34">
+        <f>LN(J29)</f>
+        <v>-0.835606854685177858</v>
+      </c>
+      <c r="K34" t="e">
+        <f>LN(K29)</f>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1590692152" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1590940047" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -725,14 +1384,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1590692152" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1590692152" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1590940047" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1590940047" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1590692152" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1590940047" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
